--- a/PREGAME/1. ELICITACIÓN/1.3 Historias de Usuario/G1_Matriz de Marco de Trabajo HU_V3.0.xlsx
+++ b/PREGAME/1. ELICITACIÓN/1.3 Historias de Usuario/G1_Matriz de Marco de Trabajo HU_V3.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ESPE\Analisis&amp;Diseño\27837_G1_ADS\PREGAME\1. ELICITACIÓN\1.3 Historias de Usuario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333417B5-0D16-43F6-9B32-AE144620B4CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AF0DBC-27A9-4549-AAFD-2A92B737704B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formato descripción HU" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t>Matriz de Marco de Trabajo de HU</t>
   </si>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>Usuario adulto mayor / Cuidador</t>
-  </si>
-  <si>
-    <t>Marcelo Acuña</t>
   </si>
   <si>
     <t>No iniciado</t>
@@ -154,33 +151,6 @@
   </si>
   <si>
     <t>Seguimiento de síntomas</t>
-  </si>
-  <si>
-    <t>RF08</t>
-  </si>
-  <si>
-    <t>El cuidador gestiona varios pacientes y no puede separar información.</t>
-  </si>
-  <si>
-    <t>Gestionar múltiples perfiles de usuario.</t>
-  </si>
-  <si>
-    <t>Para administrar distintos pacientes dentro de la misma aplicación.</t>
-  </si>
-  <si>
-    <t>Cuidador</t>
-  </si>
-  <si>
-    <t>Crear, editar o eliminar perfiles con historiales independientes.</t>
-  </si>
-  <si>
-    <t>Se crean y consultan perfiles distintos verificando independencia de datos.</t>
-  </si>
-  <si>
-    <t>Facilita el trabajo de cuidadores.</t>
-  </si>
-  <si>
-    <t>Gestión de perfiles múltiples</t>
   </si>
   <si>
     <t>HISTORIA DE USUARIO (HU)</t>
@@ -765,16 +735,24 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -800,17 +778,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
@@ -825,21 +810,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1176,26 +1146,26 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z972"/>
+  <dimension ref="A1:Z971"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.59765625" customWidth="1"/>
-    <col min="2" max="2" width="6.59765625" customWidth="1"/>
-    <col min="3" max="5" width="20.59765625" customWidth="1"/>
-    <col min="6" max="6" width="13.09765625" customWidth="1"/>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="2" max="2" width="6.625" customWidth="1"/>
+    <col min="3" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="13.125" customWidth="1"/>
     <col min="7" max="7" width="32.5" customWidth="1"/>
-    <col min="8" max="12" width="10.59765625" customWidth="1"/>
-    <col min="13" max="13" width="32.69921875" customWidth="1"/>
-    <col min="14" max="15" width="20.59765625" customWidth="1"/>
-    <col min="16" max="26" width="9.3984375" customWidth="1"/>
+    <col min="8" max="12" width="10.625" customWidth="1"/>
+    <col min="13" max="13" width="32.75" customWidth="1"/>
+    <col min="14" max="15" width="20.625" customWidth="1"/>
+    <col min="16" max="26" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1223,7 +1193,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1251,7 +1221,7 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="34" t="s">
         <v>0</v>
@@ -1281,7 +1251,7 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1309,7 +1279,7 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>1</v>
@@ -1365,28 +1335,28 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:26" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="I6" s="6">
         <v>3</v>
@@ -1395,19 +1365,19 @@
         <v>45984</v>
       </c>
       <c r="K6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" s="9" t="s">
+      <c r="N6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="O6" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -1421,28 +1391,28 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I7" s="6">
         <v>3</v>
@@ -1451,19 +1421,19 @@
         <v>45985</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="O7" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -1477,50 +1447,22 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="6">
-        <v>4</v>
-      </c>
-      <c r="J8" s="7">
-        <v>45986</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -1533,7 +1475,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1561,7 +1503,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1589,7 +1531,7 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1617,22 +1559,8 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -1645,7 +1573,7 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
@@ -1659,7 +1587,7 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -1673,7 +1601,7 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
@@ -1687,8 +1615,22 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -1701,7 +1643,7 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1729,7 +1671,7 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1757,7 +1699,7 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1785,7 +1727,7 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1813,7 +1755,7 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1841,7 +1783,7 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1869,7 +1811,7 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1897,7 +1839,7 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1925,7 +1867,7 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1953,7 +1895,7 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1981,7 +1923,7 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2009,7 +1951,7 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2037,7 +1979,7 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2065,7 +2007,7 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2093,7 +2035,7 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2121,7 +2063,7 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2149,7 +2091,7 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2177,7 +2119,7 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2205,7 +2147,7 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2233,7 +2175,7 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2261,7 +2203,7 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2289,7 +2231,7 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2317,7 +2259,7 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2345,7 +2287,7 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2373,7 +2315,7 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2401,7 +2343,7 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2429,7 +2371,7 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2457,7 +2399,7 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2485,7 +2427,7 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2513,7 +2455,7 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2541,7 +2483,7 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2569,7 +2511,7 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2597,7 +2539,7 @@
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
     </row>
-    <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2625,7 +2567,7 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
     </row>
-    <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2653,7 +2595,7 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
     </row>
-    <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2681,7 +2623,7 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
     </row>
-    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2709,7 +2651,7 @@
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
     </row>
-    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2737,7 +2679,7 @@
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
     </row>
-    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2765,7 +2707,7 @@
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
     </row>
-    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2793,7 +2735,7 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2821,7 +2763,7 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2849,7 +2791,7 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
     </row>
-    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2877,7 +2819,7 @@
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
     </row>
-    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2905,7 +2847,7 @@
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
     </row>
-    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2933,7 +2875,7 @@
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
     </row>
-    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2961,7 +2903,7 @@
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
     </row>
-    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2989,7 +2931,7 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
     </row>
-    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -3017,7 +2959,7 @@
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
     </row>
-    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -3045,7 +2987,7 @@
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
     </row>
-    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -3073,7 +3015,7 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
     </row>
-    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -3101,7 +3043,7 @@
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
     </row>
-    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -3129,7 +3071,7 @@
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
     </row>
-    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -3157,7 +3099,7 @@
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
     </row>
-    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -3185,7 +3127,7 @@
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
     </row>
-    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -3213,7 +3155,7 @@
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
     </row>
-    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -3241,7 +3183,7 @@
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
     </row>
-    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -3269,7 +3211,7 @@
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
     </row>
-    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -3297,7 +3239,7 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
     </row>
-    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -3325,7 +3267,7 @@
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
     </row>
-    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -3353,7 +3295,7 @@
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
     </row>
-    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -3381,7 +3323,7 @@
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
     </row>
-    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -3409,7 +3351,7 @@
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
     </row>
-    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -3437,7 +3379,7 @@
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
     </row>
-    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -3465,7 +3407,7 @@
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
     </row>
-    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -3493,7 +3435,7 @@
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
     </row>
-    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -3521,7 +3463,7 @@
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
     </row>
-    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -3549,7 +3491,7 @@
       <c r="Y82" s="1"/>
       <c r="Z82" s="1"/>
     </row>
-    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -3577,7 +3519,7 @@
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
     </row>
-    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -3605,7 +3547,7 @@
       <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
     </row>
-    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -3633,7 +3575,7 @@
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
     </row>
-    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -3661,7 +3603,7 @@
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
     </row>
-    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -3689,7 +3631,7 @@
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
     </row>
-    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -3717,7 +3659,7 @@
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
     </row>
-    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -3745,7 +3687,7 @@
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
     </row>
-    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -3773,7 +3715,7 @@
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
     </row>
-    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -3801,7 +3743,7 @@
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
     </row>
-    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -3829,7 +3771,7 @@
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
     </row>
-    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -3857,7 +3799,7 @@
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
     </row>
-    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -3885,7 +3827,7 @@
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
     </row>
-    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -3913,7 +3855,7 @@
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
     </row>
-    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -3941,7 +3883,7 @@
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
     </row>
-    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -3969,7 +3911,7 @@
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
     </row>
-    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -3997,7 +3939,7 @@
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
     </row>
-    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -4025,7 +3967,7 @@
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
     </row>
-    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -4053,7 +3995,7 @@
       <c r="Y100" s="1"/>
       <c r="Z100" s="1"/>
     </row>
-    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -4081,7 +4023,7 @@
       <c r="Y101" s="1"/>
       <c r="Z101" s="1"/>
     </row>
-    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -4109,7 +4051,7 @@
       <c r="Y102" s="1"/>
       <c r="Z102" s="1"/>
     </row>
-    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -4137,7 +4079,7 @@
       <c r="Y103" s="1"/>
       <c r="Z103" s="1"/>
     </row>
-    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -4165,7 +4107,7 @@
       <c r="Y104" s="1"/>
       <c r="Z104" s="1"/>
     </row>
-    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -4193,7 +4135,7 @@
       <c r="Y105" s="1"/>
       <c r="Z105" s="1"/>
     </row>
-    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -4221,7 +4163,7 @@
       <c r="Y106" s="1"/>
       <c r="Z106" s="1"/>
     </row>
-    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -4249,7 +4191,7 @@
       <c r="Y107" s="1"/>
       <c r="Z107" s="1"/>
     </row>
-    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -4277,7 +4219,7 @@
       <c r="Y108" s="1"/>
       <c r="Z108" s="1"/>
     </row>
-    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -4305,7 +4247,7 @@
       <c r="Y109" s="1"/>
       <c r="Z109" s="1"/>
     </row>
-    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -4333,7 +4275,7 @@
       <c r="Y110" s="1"/>
       <c r="Z110" s="1"/>
     </row>
-    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -4361,7 +4303,7 @@
       <c r="Y111" s="1"/>
       <c r="Z111" s="1"/>
     </row>
-    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -4389,7 +4331,7 @@
       <c r="Y112" s="1"/>
       <c r="Z112" s="1"/>
     </row>
-    <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -4417,7 +4359,7 @@
       <c r="Y113" s="1"/>
       <c r="Z113" s="1"/>
     </row>
-    <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -4445,7 +4387,7 @@
       <c r="Y114" s="1"/>
       <c r="Z114" s="1"/>
     </row>
-    <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -4473,7 +4415,7 @@
       <c r="Y115" s="1"/>
       <c r="Z115" s="1"/>
     </row>
-    <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -4501,7 +4443,7 @@
       <c r="Y116" s="1"/>
       <c r="Z116" s="1"/>
     </row>
-    <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -4529,7 +4471,7 @@
       <c r="Y117" s="1"/>
       <c r="Z117" s="1"/>
     </row>
-    <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -4557,7 +4499,7 @@
       <c r="Y118" s="1"/>
       <c r="Z118" s="1"/>
     </row>
-    <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -4585,7 +4527,7 @@
       <c r="Y119" s="1"/>
       <c r="Z119" s="1"/>
     </row>
-    <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -4613,7 +4555,7 @@
       <c r="Y120" s="1"/>
       <c r="Z120" s="1"/>
     </row>
-    <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -4641,7 +4583,7 @@
       <c r="Y121" s="1"/>
       <c r="Z121" s="1"/>
     </row>
-    <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -4669,7 +4611,7 @@
       <c r="Y122" s="1"/>
       <c r="Z122" s="1"/>
     </row>
-    <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -4697,7 +4639,7 @@
       <c r="Y123" s="1"/>
       <c r="Z123" s="1"/>
     </row>
-    <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -4725,7 +4667,7 @@
       <c r="Y124" s="1"/>
       <c r="Z124" s="1"/>
     </row>
-    <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -4753,7 +4695,7 @@
       <c r="Y125" s="1"/>
       <c r="Z125" s="1"/>
     </row>
-    <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -4781,7 +4723,7 @@
       <c r="Y126" s="1"/>
       <c r="Z126" s="1"/>
     </row>
-    <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -4809,7 +4751,7 @@
       <c r="Y127" s="1"/>
       <c r="Z127" s="1"/>
     </row>
-    <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -4837,7 +4779,7 @@
       <c r="Y128" s="1"/>
       <c r="Z128" s="1"/>
     </row>
-    <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -4865,7 +4807,7 @@
       <c r="Y129" s="1"/>
       <c r="Z129" s="1"/>
     </row>
-    <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -4893,7 +4835,7 @@
       <c r="Y130" s="1"/>
       <c r="Z130" s="1"/>
     </row>
-    <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -4921,7 +4863,7 @@
       <c r="Y131" s="1"/>
       <c r="Z131" s="1"/>
     </row>
-    <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -4949,7 +4891,7 @@
       <c r="Y132" s="1"/>
       <c r="Z132" s="1"/>
     </row>
-    <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -4977,7 +4919,7 @@
       <c r="Y133" s="1"/>
       <c r="Z133" s="1"/>
     </row>
-    <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -5005,7 +4947,7 @@
       <c r="Y134" s="1"/>
       <c r="Z134" s="1"/>
     </row>
-    <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -5033,7 +4975,7 @@
       <c r="Y135" s="1"/>
       <c r="Z135" s="1"/>
     </row>
-    <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -5061,7 +5003,7 @@
       <c r="Y136" s="1"/>
       <c r="Z136" s="1"/>
     </row>
-    <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -5089,7 +5031,7 @@
       <c r="Y137" s="1"/>
       <c r="Z137" s="1"/>
     </row>
-    <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -5117,7 +5059,7 @@
       <c r="Y138" s="1"/>
       <c r="Z138" s="1"/>
     </row>
-    <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -5145,7 +5087,7 @@
       <c r="Y139" s="1"/>
       <c r="Z139" s="1"/>
     </row>
-    <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -5173,7 +5115,7 @@
       <c r="Y140" s="1"/>
       <c r="Z140" s="1"/>
     </row>
-    <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -5201,7 +5143,7 @@
       <c r="Y141" s="1"/>
       <c r="Z141" s="1"/>
     </row>
-    <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -5229,7 +5171,7 @@
       <c r="Y142" s="1"/>
       <c r="Z142" s="1"/>
     </row>
-    <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -5257,7 +5199,7 @@
       <c r="Y143" s="1"/>
       <c r="Z143" s="1"/>
     </row>
-    <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -5285,7 +5227,7 @@
       <c r="Y144" s="1"/>
       <c r="Z144" s="1"/>
     </row>
-    <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -5313,7 +5255,7 @@
       <c r="Y145" s="1"/>
       <c r="Z145" s="1"/>
     </row>
-    <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -5341,7 +5283,7 @@
       <c r="Y146" s="1"/>
       <c r="Z146" s="1"/>
     </row>
-    <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -5369,7 +5311,7 @@
       <c r="Y147" s="1"/>
       <c r="Z147" s="1"/>
     </row>
-    <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -5397,7 +5339,7 @@
       <c r="Y148" s="1"/>
       <c r="Z148" s="1"/>
     </row>
-    <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -5425,7 +5367,7 @@
       <c r="Y149" s="1"/>
       <c r="Z149" s="1"/>
     </row>
-    <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -5453,7 +5395,7 @@
       <c r="Y150" s="1"/>
       <c r="Z150" s="1"/>
     </row>
-    <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -5481,7 +5423,7 @@
       <c r="Y151" s="1"/>
       <c r="Z151" s="1"/>
     </row>
-    <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -5509,7 +5451,7 @@
       <c r="Y152" s="1"/>
       <c r="Z152" s="1"/>
     </row>
-    <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -5537,7 +5479,7 @@
       <c r="Y153" s="1"/>
       <c r="Z153" s="1"/>
     </row>
-    <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -5565,7 +5507,7 @@
       <c r="Y154" s="1"/>
       <c r="Z154" s="1"/>
     </row>
-    <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -5593,7 +5535,7 @@
       <c r="Y155" s="1"/>
       <c r="Z155" s="1"/>
     </row>
-    <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -5621,7 +5563,7 @@
       <c r="Y156" s="1"/>
       <c r="Z156" s="1"/>
     </row>
-    <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -5649,7 +5591,7 @@
       <c r="Y157" s="1"/>
       <c r="Z157" s="1"/>
     </row>
-    <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -5677,7 +5619,7 @@
       <c r="Y158" s="1"/>
       <c r="Z158" s="1"/>
     </row>
-    <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -5705,7 +5647,7 @@
       <c r="Y159" s="1"/>
       <c r="Z159" s="1"/>
     </row>
-    <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -5733,7 +5675,7 @@
       <c r="Y160" s="1"/>
       <c r="Z160" s="1"/>
     </row>
-    <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -5761,7 +5703,7 @@
       <c r="Y161" s="1"/>
       <c r="Z161" s="1"/>
     </row>
-    <row r="162" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -5789,7 +5731,7 @@
       <c r="Y162" s="1"/>
       <c r="Z162" s="1"/>
     </row>
-    <row r="163" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -5817,7 +5759,7 @@
       <c r="Y163" s="1"/>
       <c r="Z163" s="1"/>
     </row>
-    <row r="164" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -5845,7 +5787,7 @@
       <c r="Y164" s="1"/>
       <c r="Z164" s="1"/>
     </row>
-    <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -5873,7 +5815,7 @@
       <c r="Y165" s="1"/>
       <c r="Z165" s="1"/>
     </row>
-    <row r="166" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -5901,7 +5843,7 @@
       <c r="Y166" s="1"/>
       <c r="Z166" s="1"/>
     </row>
-    <row r="167" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -5929,7 +5871,7 @@
       <c r="Y167" s="1"/>
       <c r="Z167" s="1"/>
     </row>
-    <row r="168" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -5957,7 +5899,7 @@
       <c r="Y168" s="1"/>
       <c r="Z168" s="1"/>
     </row>
-    <row r="169" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -5985,7 +5927,7 @@
       <c r="Y169" s="1"/>
       <c r="Z169" s="1"/>
     </row>
-    <row r="170" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -6013,7 +5955,7 @@
       <c r="Y170" s="1"/>
       <c r="Z170" s="1"/>
     </row>
-    <row r="171" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -6041,7 +5983,7 @@
       <c r="Y171" s="1"/>
       <c r="Z171" s="1"/>
     </row>
-    <row r="172" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -6069,7 +6011,7 @@
       <c r="Y172" s="1"/>
       <c r="Z172" s="1"/>
     </row>
-    <row r="173" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -6097,7 +6039,7 @@
       <c r="Y173" s="1"/>
       <c r="Z173" s="1"/>
     </row>
-    <row r="174" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -6125,7 +6067,7 @@
       <c r="Y174" s="1"/>
       <c r="Z174" s="1"/>
     </row>
-    <row r="175" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -6153,7 +6095,7 @@
       <c r="Y175" s="1"/>
       <c r="Z175" s="1"/>
     </row>
-    <row r="176" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -6181,7 +6123,7 @@
       <c r="Y176" s="1"/>
       <c r="Z176" s="1"/>
     </row>
-    <row r="177" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -6209,7 +6151,7 @@
       <c r="Y177" s="1"/>
       <c r="Z177" s="1"/>
     </row>
-    <row r="178" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -6237,7 +6179,7 @@
       <c r="Y178" s="1"/>
       <c r="Z178" s="1"/>
     </row>
-    <row r="179" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -6265,7 +6207,7 @@
       <c r="Y179" s="1"/>
       <c r="Z179" s="1"/>
     </row>
-    <row r="180" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -6293,7 +6235,7 @@
       <c r="Y180" s="1"/>
       <c r="Z180" s="1"/>
     </row>
-    <row r="181" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -6321,7 +6263,7 @@
       <c r="Y181" s="1"/>
       <c r="Z181" s="1"/>
     </row>
-    <row r="182" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -6349,7 +6291,7 @@
       <c r="Y182" s="1"/>
       <c r="Z182" s="1"/>
     </row>
-    <row r="183" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -6377,7 +6319,7 @@
       <c r="Y183" s="1"/>
       <c r="Z183" s="1"/>
     </row>
-    <row r="184" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -6405,7 +6347,7 @@
       <c r="Y184" s="1"/>
       <c r="Z184" s="1"/>
     </row>
-    <row r="185" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -6433,7 +6375,7 @@
       <c r="Y185" s="1"/>
       <c r="Z185" s="1"/>
     </row>
-    <row r="186" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -6461,7 +6403,7 @@
       <c r="Y186" s="1"/>
       <c r="Z186" s="1"/>
     </row>
-    <row r="187" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -6489,7 +6431,7 @@
       <c r="Y187" s="1"/>
       <c r="Z187" s="1"/>
     </row>
-    <row r="188" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -6517,7 +6459,7 @@
       <c r="Y188" s="1"/>
       <c r="Z188" s="1"/>
     </row>
-    <row r="189" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -6545,7 +6487,7 @@
       <c r="Y189" s="1"/>
       <c r="Z189" s="1"/>
     </row>
-    <row r="190" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -6573,7 +6515,7 @@
       <c r="Y190" s="1"/>
       <c r="Z190" s="1"/>
     </row>
-    <row r="191" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -6601,7 +6543,7 @@
       <c r="Y191" s="1"/>
       <c r="Z191" s="1"/>
     </row>
-    <row r="192" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -6629,7 +6571,7 @@
       <c r="Y192" s="1"/>
       <c r="Z192" s="1"/>
     </row>
-    <row r="193" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -6657,7 +6599,7 @@
       <c r="Y193" s="1"/>
       <c r="Z193" s="1"/>
     </row>
-    <row r="194" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -6685,7 +6627,7 @@
       <c r="Y194" s="1"/>
       <c r="Z194" s="1"/>
     </row>
-    <row r="195" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -6713,7 +6655,7 @@
       <c r="Y195" s="1"/>
       <c r="Z195" s="1"/>
     </row>
-    <row r="196" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -6741,7 +6683,7 @@
       <c r="Y196" s="1"/>
       <c r="Z196" s="1"/>
     </row>
-    <row r="197" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -6769,7 +6711,7 @@
       <c r="Y197" s="1"/>
       <c r="Z197" s="1"/>
     </row>
-    <row r="198" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -6797,7 +6739,7 @@
       <c r="Y198" s="1"/>
       <c r="Z198" s="1"/>
     </row>
-    <row r="199" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -6825,7 +6767,7 @@
       <c r="Y199" s="1"/>
       <c r="Z199" s="1"/>
     </row>
-    <row r="200" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -6853,7 +6795,7 @@
       <c r="Y200" s="1"/>
       <c r="Z200" s="1"/>
     </row>
-    <row r="201" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -6881,7 +6823,7 @@
       <c r="Y201" s="1"/>
       <c r="Z201" s="1"/>
     </row>
-    <row r="202" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -6909,7 +6851,7 @@
       <c r="Y202" s="1"/>
       <c r="Z202" s="1"/>
     </row>
-    <row r="203" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -6937,7 +6879,7 @@
       <c r="Y203" s="1"/>
       <c r="Z203" s="1"/>
     </row>
-    <row r="204" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -6965,7 +6907,7 @@
       <c r="Y204" s="1"/>
       <c r="Z204" s="1"/>
     </row>
-    <row r="205" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -6993,7 +6935,7 @@
       <c r="Y205" s="1"/>
       <c r="Z205" s="1"/>
     </row>
-    <row r="206" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -7021,7 +6963,7 @@
       <c r="Y206" s="1"/>
       <c r="Z206" s="1"/>
     </row>
-    <row r="207" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -7049,803 +6991,775 @@
       <c r="Y207" s="1"/>
       <c r="Z207" s="1"/>
     </row>
-    <row r="208" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="1"/>
-      <c r="B208" s="1"/>
-      <c r="C208" s="1"/>
-      <c r="D208" s="1"/>
-      <c r="E208" s="1"/>
-      <c r="F208" s="1"/>
-      <c r="G208" s="1"/>
-      <c r="H208" s="1"/>
-      <c r="I208" s="2"/>
-      <c r="J208" s="2"/>
-      <c r="K208" s="3"/>
-      <c r="L208" s="2"/>
-      <c r="M208" s="1"/>
-      <c r="N208" s="1"/>
-      <c r="O208" s="1"/>
-      <c r="P208" s="1"/>
-      <c r="Q208" s="1"/>
-      <c r="R208" s="1"/>
-      <c r="S208" s="1"/>
-      <c r="T208" s="1"/>
-      <c r="U208" s="1"/>
-      <c r="V208" s="1"/>
-      <c r="W208" s="1"/>
-      <c r="X208" s="1"/>
-      <c r="Y208" s="1"/>
-      <c r="Z208" s="1"/>
-    </row>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:O3"/>
   </mergeCells>
-  <conditionalFormatting sqref="L13:L16 L6:L8">
+  <conditionalFormatting sqref="L12:L15 L6:L7">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -7866,7 +7780,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K6:L8" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K6:L7" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -7884,35 +7798,35 @@
   <dimension ref="A2:Z1000"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.3984375" customWidth="1"/>
-    <col min="2" max="2" width="2.59765625" customWidth="1"/>
-    <col min="3" max="15" width="10.59765625" customWidth="1"/>
-    <col min="16" max="16" width="2.59765625" customWidth="1"/>
-    <col min="17" max="26" width="9.3984375" customWidth="1"/>
+    <col min="1" max="1" width="9.375" customWidth="1"/>
+    <col min="2" max="2" width="2.625" customWidth="1"/>
+    <col min="3" max="15" width="10.625" customWidth="1"/>
+    <col min="16" max="16" width="2.625" customWidth="1"/>
+    <col min="17" max="26" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:26" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="11"/>
     </row>
-    <row r="5" spans="1:26" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="11"/>
     </row>
-    <row r="6" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="69" t="s">
-        <v>47</v>
+    <row r="6" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="56" t="s">
+        <v>37</v>
       </c>
       <c r="C6" s="35"/>
       <c r="D6" s="35"/>
@@ -7929,7 +7843,7 @@
       <c r="O6" s="35"/>
       <c r="P6" s="36"/>
     </row>
-    <row r="7" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="13"/>
@@ -7957,7 +7871,7 @@
       <c r="Y7" s="12"/>
       <c r="Z7" s="12"/>
     </row>
-    <row r="8" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
@@ -7975,18 +7889,18 @@
       <c r="P8" s="18"/>
       <c r="Q8" s="12"/>
     </row>
-    <row r="9" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="19"/>
       <c r="C9" s="20" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="21"/>
-      <c r="E9" s="52" t="s">
-        <v>48</v>
+      <c r="E9" s="57" t="s">
+        <v>38</v>
       </c>
       <c r="F9" s="36"/>
       <c r="G9" s="21"/>
-      <c r="H9" s="52" t="s">
+      <c r="H9" s="57" t="s">
         <v>11</v>
       </c>
       <c r="I9" s="36"/>
@@ -7999,20 +7913,20 @@
       <c r="P9" s="23"/>
       <c r="Q9" s="12"/>
     </row>
-    <row r="10" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="19"/>
       <c r="C10" s="24" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D10" s="25"/>
-      <c r="E10" s="70" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O8,5,0)</f>
-        <v>Cuidador / Profesional de salud</v>
+      <c r="E10" s="58" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O7,5,0)</f>
+        <v>Usuario adulto mayor / Cuidador</v>
       </c>
-      <c r="F10" s="71"/>
+      <c r="F10" s="59"/>
       <c r="G10" s="26"/>
-      <c r="H10" s="53" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O8,11,0)</f>
+      <c r="H10" s="60" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O7,11,0)</f>
         <v>No iniciado</v>
       </c>
       <c r="I10" s="36"/>
@@ -8025,7 +7939,7 @@
       <c r="P10" s="23"/>
       <c r="Q10" s="12"/>
     </row>
-    <row r="11" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
       <c r="B11" s="19"/>
       <c r="C11" s="27"/>
@@ -8053,20 +7967,20 @@
       <c r="Y11" s="12"/>
       <c r="Z11" s="12"/>
     </row>
-    <row r="12" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12"/>
       <c r="B12" s="19"/>
       <c r="C12" s="20" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D12" s="25"/>
-      <c r="E12" s="52" t="s">
+      <c r="E12" s="57" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="36"/>
       <c r="G12" s="26"/>
-      <c r="H12" s="52" t="s">
-        <v>50</v>
+      <c r="H12" s="57" t="s">
+        <v>40</v>
       </c>
       <c r="I12" s="36"/>
       <c r="J12" s="26"/>
@@ -8087,23 +8001,23 @@
       <c r="Y12" s="12"/>
       <c r="Z12" s="12"/>
     </row>
-    <row r="13" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="19"/>
       <c r="C13" s="29">
-        <f>VLOOKUP('Historia de Usuario'!C10,'Formato descripción HU'!B6:O8,8,0)</f>
+        <f>VLOOKUP('Historia de Usuario'!C10,'Formato descripción HU'!B6:O7,8,0)</f>
         <v>3</v>
       </c>
       <c r="D13" s="25"/>
-      <c r="E13" s="53" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O8,10,0)</f>
+      <c r="E13" s="60" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O7,10,0)</f>
         <v>Media</v>
       </c>
       <c r="F13" s="36"/>
       <c r="G13" s="26"/>
-      <c r="H13" s="53" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O8,7,0)</f>
-        <v>Abner Arboleda</v>
+      <c r="H13" s="60" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O7,7,0)</f>
+        <v>Christian Bonifaz</v>
       </c>
       <c r="I13" s="36"/>
       <c r="J13" s="26"/>
@@ -8124,7 +8038,7 @@
       <c r="Y13" s="12"/>
       <c r="Z13" s="12"/>
     </row>
-    <row r="14" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12"/>
       <c r="B14" s="19"/>
       <c r="C14" s="22"/>
@@ -8152,37 +8066,37 @@
       <c r="Y14" s="12"/>
       <c r="Z14" s="12"/>
     </row>
-    <row r="15" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
       <c r="B15" s="19"/>
-      <c r="C15" s="54" t="s">
-        <v>51</v>
+      <c r="C15" s="37" t="s">
+        <v>41</v>
       </c>
-      <c r="D15" s="43" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O8,3,0)</f>
-        <v>Registrar eventos (tomado, omitido, pospuesto) y generar informes.</v>
+      <c r="D15" s="61" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O7,3,0)</f>
+        <v>Registrar síntomas asociados a medicamentos.</v>
       </c>
-      <c r="E15" s="38"/>
+      <c r="E15" s="41"/>
       <c r="F15" s="30"/>
-      <c r="G15" s="54" t="s">
-        <v>52</v>
+      <c r="G15" s="37" t="s">
+        <v>42</v>
       </c>
-      <c r="H15" s="43" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O8,4,0)</f>
-        <v>Para que el usuario o cuidador puedan visualizar y compartir el historial.</v>
+      <c r="H15" s="61" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O7,4,0)</f>
+        <v>Para monitorear la evolución del tratamiento y posibles reacciones adversas.</v>
       </c>
-      <c r="I15" s="57"/>
-      <c r="J15" s="38"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="41"/>
       <c r="K15" s="30"/>
-      <c r="L15" s="54" t="s">
-        <v>53</v>
+      <c r="L15" s="37" t="s">
+        <v>43</v>
       </c>
-      <c r="M15" s="60" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O8,6,0)</f>
-        <v>Generar reportes PDF con fecha, hora y motivo de cada acción.</v>
+      <c r="M15" s="65" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O7,6,0)</f>
+        <v>Seleccionar medicamento, ingresar tipo, intensidad, frecuencia y notas del síntoma.</v>
       </c>
-      <c r="N15" s="44"/>
-      <c r="O15" s="45"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="49"/>
       <c r="P15" s="23"/>
       <c r="Q15" s="12"/>
       <c r="R15" s="12"/>
@@ -8195,22 +8109,22 @@
       <c r="Y15" s="12"/>
       <c r="Z15" s="12"/>
     </row>
-    <row r="16" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
       <c r="B16" s="19"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="40"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="46"/>
       <c r="F16" s="30"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="40"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="46"/>
       <c r="K16" s="30"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="48"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="52"/>
       <c r="P16" s="23"/>
       <c r="Q16" s="12"/>
       <c r="R16" s="12"/>
@@ -8223,22 +8137,22 @@
       <c r="Y16" s="12"/>
       <c r="Z16" s="12"/>
     </row>
-    <row r="17" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
       <c r="B17" s="19"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="42"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="43"/>
       <c r="F17" s="30"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="42"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="43"/>
       <c r="K17" s="30"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="51"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="55"/>
       <c r="P17" s="23"/>
       <c r="Q17" s="12"/>
       <c r="R17" s="12"/>
@@ -8251,7 +8165,7 @@
       <c r="Y17" s="12"/>
       <c r="Z17" s="12"/>
     </row>
-    <row r="18" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
       <c r="B18" s="19"/>
       <c r="C18" s="22"/>
@@ -8279,48 +8193,48 @@
       <c r="Y18" s="12"/>
       <c r="Z18" s="12"/>
     </row>
-    <row r="19" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="19"/>
-      <c r="C19" s="67" t="s">
-        <v>54</v>
+      <c r="C19" s="40" t="s">
+        <v>44</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="61" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O8,14,0)</f>
-        <v>Informes de historial de medicación</v>
+      <c r="D19" s="41"/>
+      <c r="E19" s="66" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O7,14,0)</f>
+        <v>Seguimiento de síntomas</v>
       </c>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="62"/>
-      <c r="O19" s="63"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="68"/>
       <c r="P19" s="23"/>
       <c r="Q19" s="12"/>
     </row>
-    <row r="20" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="19"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="65"/>
-      <c r="O20" s="66"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="71"/>
       <c r="P20" s="23"/>
       <c r="Q20" s="12"/>
     </row>
-    <row r="21" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="19"/>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
@@ -8338,32 +8252,32 @@
       <c r="P21" s="23"/>
       <c r="Q21" s="12"/>
     </row>
-    <row r="22" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
       <c r="B22" s="19"/>
-      <c r="C22" s="37" t="s">
-        <v>55</v>
+      <c r="C22" s="44" t="s">
+        <v>45</v>
       </c>
-      <c r="D22" s="38"/>
-      <c r="E22" s="68" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O8,12,0)</f>
-        <v>Se genera un PDF y se verifica que todos los eventos estén listados correctamente.</v>
+      <c r="D22" s="41"/>
+      <c r="E22" s="47" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O7,12,0)</f>
+        <v>Se guarda el síntoma y se muestra en el historial asociado al medicamento.</v>
       </c>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="45"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="49"/>
       <c r="I22" s="22"/>
-      <c r="J22" s="37" t="s">
+      <c r="J22" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="K22" s="38"/>
-      <c r="L22" s="43" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O8,13,0)</f>
-        <v>Compatible con exportación a Excel.</v>
+      <c r="K22" s="41"/>
+      <c r="L22" s="61" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O7,13,0)</f>
+        <v>Puede incluir íconos o categorías visuales.</v>
       </c>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="45"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="49"/>
       <c r="P22" s="23"/>
       <c r="Q22" s="12"/>
       <c r="R22" s="12"/>
@@ -8376,22 +8290,22 @@
       <c r="Y22" s="12"/>
       <c r="Z22" s="12"/>
     </row>
-    <row r="23" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="19"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="48"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="52"/>
       <c r="I23" s="22"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="48"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="52"/>
       <c r="P23" s="23"/>
       <c r="Q23" s="12"/>
       <c r="R23" s="12"/>
@@ -8404,22 +8318,22 @@
       <c r="Y23" s="12"/>
       <c r="Z23" s="12"/>
     </row>
-    <row r="24" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12"/>
       <c r="B24" s="19"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="51"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="55"/>
       <c r="I24" s="22"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="51"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="55"/>
       <c r="P24" s="23"/>
       <c r="Q24" s="12"/>
       <c r="R24" s="12"/>
@@ -8432,7 +8346,7 @@
       <c r="Y24" s="12"/>
       <c r="Z24" s="12"/>
     </row>
-    <row r="25" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="31"/>
       <c r="C25" s="32"/>
@@ -8460,7 +8374,7 @@
       <c r="Y25" s="12"/>
       <c r="Z25" s="12"/>
     </row>
-    <row r="26" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -8488,7 +8402,7 @@
       <c r="Y26" s="12"/>
       <c r="Z26" s="12"/>
     </row>
-    <row r="27" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -8516,7 +8430,7 @@
       <c r="Y27" s="12"/>
       <c r="Z27" s="12"/>
     </row>
-    <row r="28" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -8544,7 +8458,7 @@
       <c r="Y28" s="12"/>
       <c r="Z28" s="12"/>
     </row>
-    <row r="29" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -8572,7 +8486,7 @@
       <c r="Y29" s="12"/>
       <c r="Z29" s="12"/>
     </row>
-    <row r="30" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -8600,7 +8514,7 @@
       <c r="Y30" s="12"/>
       <c r="Z30" s="12"/>
     </row>
-    <row r="31" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -8628,7 +8542,7 @@
       <c r="Y31" s="12"/>
       <c r="Z31" s="12"/>
     </row>
-    <row r="32" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -8656,7 +8570,7 @@
       <c r="Y32" s="12"/>
       <c r="Z32" s="12"/>
     </row>
-    <row r="33" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -8684,7 +8598,7 @@
       <c r="Y33" s="12"/>
       <c r="Z33" s="12"/>
     </row>
-    <row r="34" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
@@ -8700,7 +8614,7 @@
       <c r="O34" s="12"/>
       <c r="P34" s="12"/>
     </row>
-    <row r="35" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
@@ -8716,7 +8630,7 @@
       <c r="O35" s="12"/>
       <c r="P35" s="12"/>
     </row>
-    <row r="36" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
@@ -8732,7 +8646,7 @@
       <c r="O36" s="12"/>
       <c r="P36" s="12"/>
     </row>
-    <row r="37" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
@@ -8748,7 +8662,7 @@
       <c r="O37" s="12"/>
       <c r="P37" s="12"/>
     </row>
-    <row r="38" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
@@ -8764,7 +8678,7 @@
       <c r="O38" s="12"/>
       <c r="P38" s="12"/>
     </row>
-    <row r="39" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
@@ -8780,7 +8694,7 @@
       <c r="O39" s="12"/>
       <c r="P39" s="12"/>
     </row>
-    <row r="40" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
@@ -8793,7 +8707,7 @@
       <c r="O40" s="12"/>
       <c r="P40" s="12"/>
     </row>
-    <row r="41" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
@@ -8809,7 +8723,7 @@
       <c r="O41" s="12"/>
       <c r="P41" s="12"/>
     </row>
-    <row r="42" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
@@ -8825,7 +8739,7 @@
       <c r="O42" s="12"/>
       <c r="P42" s="12"/>
     </row>
-    <row r="43" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
@@ -8841,7 +8755,7 @@
       <c r="O43" s="12"/>
       <c r="P43" s="12"/>
     </row>
-    <row r="44" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
@@ -8857,7 +8771,7 @@
       <c r="O44" s="12"/>
       <c r="P44" s="12"/>
     </row>
-    <row r="45" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
@@ -8873,7 +8787,7 @@
       <c r="O45" s="12"/>
       <c r="P45" s="12"/>
     </row>
-    <row r="46" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
@@ -8889,7 +8803,7 @@
       <c r="O46" s="12"/>
       <c r="P46" s="12"/>
     </row>
-    <row r="47" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
@@ -8905,7 +8819,7 @@
       <c r="O47" s="12"/>
       <c r="P47" s="12"/>
     </row>
-    <row r="48" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
@@ -8921,7 +8835,7 @@
       <c r="O48" s="12"/>
       <c r="P48" s="12"/>
     </row>
-    <row r="49" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
@@ -8937,7 +8851,7 @@
       <c r="O49" s="12"/>
       <c r="P49" s="12"/>
     </row>
-    <row r="50" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
@@ -8953,7 +8867,7 @@
       <c r="O50" s="12"/>
       <c r="P50" s="12"/>
     </row>
-    <row r="51" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
@@ -8969,7 +8883,7 @@
       <c r="O51" s="12"/>
       <c r="P51" s="12"/>
     </row>
-    <row r="52" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
@@ -8985,7 +8899,7 @@
       <c r="O52" s="12"/>
       <c r="P52" s="12"/>
     </row>
-    <row r="53" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
@@ -9001,7 +8915,7 @@
       <c r="O53" s="12"/>
       <c r="P53" s="12"/>
     </row>
-    <row r="54" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
@@ -9016,7 +8930,7 @@
       <c r="N54" s="12"/>
       <c r="O54" s="12"/>
     </row>
-    <row r="55" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
@@ -9031,953 +8945,958 @@
       <c r="N55" s="12"/>
       <c r="O55" s="12"/>
     </row>
-    <row r="56" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="M15:O17"/>
+    <mergeCell ref="E19:O20"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="C19:D20"/>
     <mergeCell ref="C22:D24"/>
@@ -9994,11 +9913,6 @@
     <mergeCell ref="D15:E17"/>
     <mergeCell ref="G15:G17"/>
     <mergeCell ref="H15:J17"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="M15:O17"/>
-    <mergeCell ref="E19:O20"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:I11">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
@@ -10029,7 +9943,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
-            <xm:f>'Formato descripción HU'!$B$6:$B$8</xm:f>
+            <xm:f>'Formato descripción HU'!$B$6:$B$7</xm:f>
           </x14:formula1>
           <xm:sqref>C10:C11</xm:sqref>
         </x14:dataValidation>
